--- a/plots/xai-methods-by-input.xlsx
+++ b/plots/xai-methods-by-input.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\literature_review\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0164E8-CDB1-4136-BEEC-7948C24230A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AE32C8-DAD8-49E9-9191-6C69EA5A12A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56256E84-DE1D-4CC8-9016-18D31DA967B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{56256E84-DE1D-4CC8-9016-18D31DA967B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$D$1:$J$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>tabular</t>
   </si>
@@ -57,16 +60,19 @@
     <t>Partial Dependence Plots</t>
   </si>
   <si>
-    <t>Class Activation Mapping or related (i. e., Grad-CAM)</t>
-  </si>
-  <si>
     <t>Permutation Importance</t>
   </si>
   <si>
     <t>Layer-Wise Relevance Propagation</t>
   </si>
   <si>
-    <t>Saliency Maps</t>
+    <t>Attention Weight</t>
+  </si>
+  <si>
+    <t>Saliency Map</t>
+  </si>
+  <si>
+    <t>Class Activation Mapping or related</t>
   </si>
 </sst>
 </file>
@@ -195,9 +201,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$10</c:f>
+              <c:f>Tabelle1!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>SHAP</c:v>
                 </c:pt>
@@ -214,26 +220,29 @@
                   <c:v>Partial Dependence Plots</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Class Activation Mapping or related (i. e., Grad-CAM)</c:v>
+                  <c:v>Class Activation Mapping or related</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Attention Weight</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Permutation Importance</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Layer-Wise Relevance Propagation</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>Saliency Maps</c:v>
+                <c:pt idx="9">
+                  <c:v>Saliency Map</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$10</c:f>
+              <c:f>Tabelle1!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>108</c:v>
                 </c:pt>
@@ -253,13 +262,16 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,9 +308,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Tabelle1!$A$2:$A$10</c:f>
+              <c:f>Tabelle1!$A$2:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>SHAP</c:v>
                 </c:pt>
@@ -315,26 +327,29 @@
                   <c:v>Partial Dependence Plots</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Class Activation Mapping or related (i. e., Grad-CAM)</c:v>
+                  <c:v>Class Activation Mapping or related</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>Attention Weight</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>Permutation Importance</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Layer-Wise Relevance Propagation</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>Saliency Maps</c:v>
+                <c:pt idx="9">
+                  <c:v>Saliency Map</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$2:$C$10</c:f>
+              <c:f>Tabelle1!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -354,13 +369,16 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,13 +431,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -460,13 +478,13 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
-                    <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                    <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -489,13 +507,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
-                  <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                  <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -518,13 +536,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -557,13 +575,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr rtl="0">
-              <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+                <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -593,13 +611,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+              <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -637,11 +655,13 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="700">
+        <a:defRPr sz="600">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
-          <a:latin typeface="Bodoni MT" panose="02070603080606020203" pitchFamily="18" charset="0"/>
+          <a:latin typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:ea typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
+          <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
@@ -1202,13 +1222,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>84365</xdr:colOff>
+      <xdr:colOff>28802</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>59871</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>832759</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>816690</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>587828</xdr:rowOff>
     </xdr:to>
@@ -1535,15 +1555,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FA80E1-B3EC-4F9E-A640-73A2BCE0BDAC}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="205" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="10" max="10" width="11.4140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1562,7 +1585,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1573,7 +1596,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="80" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1584,7 +1607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1595,7 +1618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1606,9 +1629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="99" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
         <v>8</v>
@@ -1617,41 +1640,53 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="80" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
         <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="33" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/plots/xai-methods-by-input.xlsx
+++ b/plots/xai-methods-by-input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joa24jm\Documents\literature_review\plots\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\literature_review\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1AE32C8-DAD8-49E9-9191-6C69EA5A12A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4835B191-240A-4280-B7DC-41F5FADD5600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{56256E84-DE1D-4CC8-9016-18D31DA967B4}"/>
+    <workbookView xWindow="38280" yWindow="2235" windowWidth="29040" windowHeight="15720" xr2:uid="{56256E84-DE1D-4CC8-9016-18D31DA967B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -143,6 +143,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8FAADC"/>
+      <color rgb="FF4472C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -161,10 +167,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -191,7 +197,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="4472C4">
+                <a:alpha val="70000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -298,7 +306,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:srgbClr val="8FAADC">
+                <a:alpha val="69804"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -440,7 +450,7 @@
                 <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1079083184"/>
@@ -457,20 +467,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -516,7 +512,7 @@
                   <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="de-DE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -545,7 +541,7 @@
                 <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1079090672"/>
@@ -584,7 +580,7 @@
                 <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -620,7 +616,7 @@
               <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -664,7 +660,7 @@
           <a:cs typeface="CMU Serif" panose="02000603000000000000" pitchFamily="2" charset="0"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -676,39 +672,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1557,16 +1522,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00FA80E1-B3EC-4F9E-A640-73A2BCE0BDAC}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="205" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="205" zoomScaleSheetLayoutView="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="10" max="10" width="11.4140625" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1585,7 +1548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1596,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="80" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="78" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1618,7 +1581,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="64" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1640,7 +1603,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -1651,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="62.4" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1662,7 +1625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="80" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="78" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
